--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>110.6037386094953</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>141.8748150613678</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>154.6390196253797</v>
       </c>
       <c r="E2">
-        <v>160</v>
+        <v>159.1941223406691</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>131</v>
+        <v>131.0425454942191</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>168.2501517299574</v>
       </c>
       <c r="D3">
-        <v>182</v>
+        <v>182.0610005363182</v>
       </c>
       <c r="E3">
-        <v>189</v>
+        <v>188.8162988227002</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>112.666445349681</v>
       </c>
       <c r="C4">
-        <v>154</v>
+        <v>153.4973259090706</v>
       </c>
       <c r="D4">
-        <v>171</v>
+        <v>171.0063753312263</v>
       </c>
       <c r="E4">
-        <v>179</v>
+        <v>178.2580276293813</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>85.96020224791131</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>111.2037520971044</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>119.7289479488444</v>
       </c>
       <c r="E5">
-        <v>125</v>
+        <v>125.10527668458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>72.40044713942079</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>95.42517674372721</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>105.215782097819</v>
       </c>
       <c r="E6">
-        <v>109</v>
+        <v>108.8538342583379</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>8.438509089153781</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>10.57750523605318</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>11.37828408992323</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>11.5958922349319</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>213</v>
+        <v>211.6010213583109</v>
       </c>
       <c r="C8">
-        <v>387</v>
+        <v>384.3663894153204</v>
       </c>
       <c r="D8">
-        <v>499</v>
+        <v>495.6829364973806</v>
       </c>
       <c r="E8">
-        <v>583</v>
+        <v>580.5283869232215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>102.4159836683118</v>
       </c>
       <c r="C9">
-        <v>135</v>
+        <v>134.9463783788159</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>149.5960359054758</v>
       </c>
       <c r="E9">
-        <v>156</v>
+        <v>156.0724152984351</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>51.75226988155834</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>63.13822757864467</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>67.36650180456212</v>
       </c>
       <c r="E10">
-        <v>68</v>
+        <v>67.94799127958943</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>9.420671744348708</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10.95105220820701</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>11.58017828699013</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>12.61142911310548</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>21.12528819807494</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>27.92059920532937</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>30.2973566146306</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>30.15158615756685</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>28.37400224211783</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>34.73057127637083</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>37.66155496818168</v>
       </c>
       <c r="E13">
-        <v>39</v>
+        <v>38.48832733132601</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>110.6037386094953</v>
+        <v>116.6783701562449</v>
       </c>
       <c r="C2">
-        <v>141.8748150613678</v>
+        <v>146.7387086897139</v>
       </c>
       <c r="D2">
-        <v>154.6390196253797</v>
+        <v>157.5081954592841</v>
       </c>
       <c r="E2">
-        <v>159.1941223406691</v>
+        <v>161.154932212816</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>131.0425454942191</v>
+        <v>138.5596299358169</v>
       </c>
       <c r="C3">
-        <v>168.2501517299574</v>
+        <v>174.1517542304422</v>
       </c>
       <c r="D3">
-        <v>182.0610005363182</v>
+        <v>185.4666971773374</v>
       </c>
       <c r="E3">
-        <v>188.8162988227002</v>
+        <v>191.1487947608963</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>112.666445349681</v>
+        <v>118.8896089632375</v>
       </c>
       <c r="C4">
-        <v>153.4973259090706</v>
+        <v>158.7791750362647</v>
       </c>
       <c r="D4">
-        <v>171.0063753312263</v>
+        <v>174.1949993529752</v>
       </c>
       <c r="E4">
-        <v>178.2580276293813</v>
+        <v>180.4525293287959</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>85.96020224791131</v>
+        <v>91.39267917363892</v>
       </c>
       <c r="C5">
-        <v>111.2037520971044</v>
+        <v>115.2882279211059</v>
       </c>
       <c r="D5">
-        <v>119.7289479488444</v>
+        <v>121.9989767003405</v>
       </c>
       <c r="E5">
-        <v>125.10527668458</v>
+        <v>126.6490149087627</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>72.40044713942079</v>
+        <v>77.04948484521005</v>
       </c>
       <c r="C6">
-        <v>95.42517674372721</v>
+        <v>98.97414891610921</v>
       </c>
       <c r="D6">
-        <v>105.215782097819</v>
+        <v>107.2179615983742</v>
       </c>
       <c r="E6">
-        <v>108.8538342583379</v>
+        <v>110.2001182718041</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.438509089153781</v>
+        <v>8.973375454910869</v>
       </c>
       <c r="C7">
-        <v>10.57750523605318</v>
+        <v>10.96695152661196</v>
       </c>
       <c r="D7">
-        <v>11.37828408992323</v>
+        <v>11.59449371557918</v>
       </c>
       <c r="E7">
-        <v>11.5958922349319</v>
+        <v>11.739270508237</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>211.6010213583109</v>
+        <v>223.3695539481475</v>
       </c>
       <c r="C8">
-        <v>384.3663894153204</v>
+        <v>397.6025228418179</v>
       </c>
       <c r="D8">
-        <v>495.6829364973806</v>
+        <v>504.9176477967732</v>
       </c>
       <c r="E8">
-        <v>580.5283869232215</v>
+        <v>587.6187498042602</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102.4159836683118</v>
+        <v>108.9738911407499</v>
       </c>
       <c r="C9">
-        <v>134.9463783788159</v>
+        <v>139.9331364093279</v>
       </c>
       <c r="D9">
-        <v>149.5960359054758</v>
+        <v>152.4325372754017</v>
       </c>
       <c r="E9">
-        <v>156.0724152984351</v>
+        <v>157.9966361046197</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>51.75226988155834</v>
+        <v>54.71924098799064</v>
       </c>
       <c r="C10">
-        <v>63.13822757864467</v>
+        <v>65.34791658083867</v>
       </c>
       <c r="D10">
-        <v>67.36650180456212</v>
+        <v>68.62978723665572</v>
       </c>
       <c r="E10">
-        <v>67.94799127958943</v>
+        <v>68.78508018512743</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.420671744348708</v>
+        <v>9.963107903345096</v>
       </c>
       <c r="C11">
-        <v>10.95105220820701</v>
+        <v>11.33515688433635</v>
       </c>
       <c r="D11">
-        <v>11.58017828699013</v>
+        <v>11.79755924073039</v>
       </c>
       <c r="E11">
-        <v>12.61142911310548</v>
+        <v>12.76687655114364</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>21.12528819807494</v>
+        <v>22.40599374631704</v>
       </c>
       <c r="C12">
-        <v>27.92059920532937</v>
+        <v>28.92705375030485</v>
       </c>
       <c r="D12">
-        <v>30.2973566146306</v>
+        <v>30.87116680100592</v>
       </c>
       <c r="E12">
-        <v>30.15158615756685</v>
+        <v>30.52483917172784</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28.37400224211783</v>
+        <v>30.0250637443907</v>
       </c>
       <c r="C13">
-        <v>34.73057127637083</v>
+        <v>35.95524721312628</v>
       </c>
       <c r="D13">
-        <v>37.66155496818168</v>
+        <v>38.36997764554268</v>
       </c>
       <c r="E13">
-        <v>38.48832733132601</v>
+        <v>38.96315819180896</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
@@ -388,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>116.6783701562449</v>
+        <v>116.6783701562448</v>
       </c>
       <c r="C2">
         <v>146.7387086897139</v>
@@ -408,7 +408,7 @@
         <v>138.5596299358169</v>
       </c>
       <c r="C3">
-        <v>174.1517542304422</v>
+        <v>174.1517542304423</v>
       </c>
       <c r="D3">
         <v>185.4666971773374</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>91.39267917363892</v>
+        <v>91.3926791736389</v>
       </c>
       <c r="C5">
         <v>115.2882279211059</v>
@@ -459,7 +459,7 @@
         <v>77.04948484521005</v>
       </c>
       <c r="C6">
-        <v>98.97414891610921</v>
+        <v>98.97414891610923</v>
       </c>
       <c r="D6">
         <v>107.2179615983742</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.973375454910869</v>
+        <v>8.973375454910867</v>
       </c>
       <c r="C7">
         <v>10.96695152661196</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>223.3695539481475</v>
+        <v>223.3695539481474</v>
       </c>
       <c r="C8">
         <v>397.6025228418179</v>
@@ -527,7 +527,7 @@
         <v>54.71924098799064</v>
       </c>
       <c r="C10">
-        <v>65.34791658083867</v>
+        <v>65.3479165808387</v>
       </c>
       <c r="D10">
         <v>68.62978723665572</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.963107903345096</v>
+        <v>9.963107903345094</v>
       </c>
       <c r="C11">
         <v>11.33515688433635</v>
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>22.40599374631704</v>
+        <v>22.40599374631703</v>
       </c>
       <c r="C12">
-        <v>28.92705375030485</v>
+        <v>28.92705375030486</v>
       </c>
       <c r="D12">
         <v>30.87116680100592</v>
       </c>
       <c r="E12">
-        <v>30.52483917172784</v>
+        <v>30.52483917172783</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>30.0250637443907</v>
+        <v>30.02506374439069</v>
       </c>
       <c r="C13">
-        <v>35.95524721312628</v>
+        <v>35.95524721312629</v>
       </c>
       <c r="D13">
         <v>38.36997764554268</v>
